--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H2">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I2">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J2">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>1019.798554280141</v>
+        <v>1073.153579020302</v>
       </c>
       <c r="R2">
-        <v>1019.798554280141</v>
+        <v>4292.61431608121</v>
       </c>
       <c r="S2">
-        <v>0.02147375016204923</v>
+        <v>0.02147849013299</v>
       </c>
       <c r="T2">
-        <v>0.02147375016204923</v>
+        <v>0.01162187687474316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H3">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I3">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J3">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>3932.823984816927</v>
+        <v>4170.749212730596</v>
       </c>
       <c r="R3">
-        <v>3932.823984816927</v>
+        <v>25024.49527638357</v>
       </c>
       <c r="S3">
-        <v>0.08281290390815201</v>
+        <v>0.08347490756597024</v>
       </c>
       <c r="T3">
-        <v>0.08281290390815201</v>
+        <v>0.06775162675696102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H4">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I4">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J4">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>5644.387247476624</v>
+        <v>5740.336880426739</v>
       </c>
       <c r="R4">
-        <v>5644.387247476624</v>
+        <v>34442.02128256044</v>
       </c>
       <c r="S4">
-        <v>0.118853043144121</v>
+        <v>0.1148892119978214</v>
       </c>
       <c r="T4">
-        <v>0.118853043144121</v>
+        <v>0.09324875266889178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H5">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I5">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J5">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>5625.359054596763</v>
+        <v>5680.668024163453</v>
       </c>
       <c r="R5">
-        <v>5625.359054596763</v>
+        <v>34084.00814498071</v>
       </c>
       <c r="S5">
-        <v>0.1184523692480633</v>
+        <v>0.1136949775792326</v>
       </c>
       <c r="T5">
-        <v>0.1184523692480633</v>
+        <v>0.09227946349028922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H6">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I6">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J6">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>766.9543731653098</v>
+        <v>839.5131995101221</v>
       </c>
       <c r="R6">
-        <v>766.9543731653098</v>
+        <v>5037.079197060732</v>
       </c>
       <c r="S6">
-        <v>0.01614964693362251</v>
+        <v>0.01680232571059794</v>
       </c>
       <c r="T6">
-        <v>0.01614964693362251</v>
+        <v>0.01363745026364546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H7">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I7">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J7">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>1837.893565849722</v>
+        <v>1840.580905202173</v>
       </c>
       <c r="R7">
-        <v>1837.893565849722</v>
+        <v>7362.323620808692</v>
       </c>
       <c r="S7">
-        <v>0.03870025809690764</v>
+        <v>0.03683806268199266</v>
       </c>
       <c r="T7">
-        <v>0.03870025809690764</v>
+        <v>0.01993284565829909</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H8">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J8">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>93.87986862181647</v>
+        <v>107.7348863956983</v>
       </c>
       <c r="R8">
-        <v>93.87986862181647</v>
+        <v>646.4093183741901</v>
       </c>
       <c r="S8">
-        <v>0.001976814769514868</v>
+        <v>0.002156245610755241</v>
       </c>
       <c r="T8">
-        <v>0.001976814769514868</v>
+        <v>0.001750096550879919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H9">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J9">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>362.0450308129368</v>
+        <v>418.7053944587163</v>
       </c>
       <c r="R9">
-        <v>362.0450308129368</v>
+        <v>3768.348550128447</v>
       </c>
       <c r="S9">
-        <v>0.007623529673050273</v>
+        <v>0.00838012364616182</v>
       </c>
       <c r="T9">
-        <v>0.007623529673050273</v>
+        <v>0.01020247328222375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H10">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J10">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>519.6068684543347</v>
+        <v>576.2777609616603</v>
       </c>
       <c r="R10">
-        <v>519.6068684543347</v>
+        <v>5186.499848654943</v>
       </c>
       <c r="S10">
-        <v>0.01094128642254191</v>
+        <v>0.01153383489991829</v>
       </c>
       <c r="T10">
-        <v>0.01094128642254191</v>
+        <v>0.01404199357629907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H11">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J11">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>517.8551850064866</v>
+        <v>570.2875489579367</v>
       </c>
       <c r="R11">
-        <v>517.8551850064866</v>
+        <v>5132.58794062143</v>
       </c>
       <c r="S11">
-        <v>0.01090440147838876</v>
+        <v>0.01141394459536938</v>
       </c>
       <c r="T11">
-        <v>0.01090440147838876</v>
+        <v>0.01389603181241529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H12">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J12">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>70.60372412717494</v>
+        <v>84.27951128810535</v>
       </c>
       <c r="R12">
-        <v>70.60372412717494</v>
+        <v>758.5156015929482</v>
       </c>
       <c r="S12">
-        <v>0.001486692372776908</v>
+        <v>0.001686801113096361</v>
       </c>
       <c r="T12">
-        <v>0.001486692372776908</v>
+        <v>0.002053614482964466</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H13">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J13">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>169.1914601944575</v>
+        <v>184.7776297825647</v>
       </c>
       <c r="R13">
-        <v>169.1914601944575</v>
+        <v>1108.665778695388</v>
       </c>
       <c r="S13">
-        <v>0.003562640023874792</v>
+        <v>0.003698207391438994</v>
       </c>
       <c r="T13">
-        <v>0.003562640023874792</v>
+        <v>0.003001615385516803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H14">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I14">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J14">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>410.6821450364851</v>
+        <v>473.7885970830367</v>
       </c>
       <c r="R14">
-        <v>410.6821450364851</v>
+        <v>2842.73158249822</v>
       </c>
       <c r="S14">
-        <v>0.008647674328929657</v>
+        <v>0.009482579107513425</v>
       </c>
       <c r="T14">
-        <v>0.008647674328929657</v>
+        <v>0.007696446502535742</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H15">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I15">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J15">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>1583.783957485265</v>
+        <v>1841.351934071521</v>
       </c>
       <c r="R15">
-        <v>1583.783957485265</v>
+        <v>16572.16740664369</v>
       </c>
       <c r="S15">
-        <v>0.03334950895052714</v>
+        <v>0.03685349433715022</v>
       </c>
       <c r="T15">
-        <v>0.03334950895052714</v>
+        <v>0.04486769016869692</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H16">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I16">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J16">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>2273.046036868091</v>
+        <v>2534.312153013793</v>
       </c>
       <c r="R16">
-        <v>2273.046036868091</v>
+        <v>22808.80937712414</v>
       </c>
       <c r="S16">
-        <v>0.04786320052884984</v>
+        <v>0.05072265483391131</v>
       </c>
       <c r="T16">
-        <v>0.04786320052884984</v>
+        <v>0.06175285146102302</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H17">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I17">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J17">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>2265.383210680241</v>
+        <v>2507.968837153689</v>
       </c>
       <c r="R17">
-        <v>2265.383210680241</v>
+        <v>22571.71953438321</v>
       </c>
       <c r="S17">
-        <v>0.04770184550985862</v>
+        <v>0.05019541002866358</v>
       </c>
       <c r="T17">
-        <v>0.04770184550985862</v>
+        <v>0.06111095150037089</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H18">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I18">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J18">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>308.8594956275239</v>
+        <v>370.6382653932027</v>
       </c>
       <c r="R18">
-        <v>308.8594956275239</v>
+        <v>3335.744388538825</v>
       </c>
       <c r="S18">
-        <v>0.006503609577053844</v>
+        <v>0.0074180904595444</v>
       </c>
       <c r="T18">
-        <v>0.006503609577053844</v>
+        <v>0.009031235446422575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H19">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I19">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J19">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>740.1364404803579</v>
+        <v>812.6015343392573</v>
       </c>
       <c r="R19">
-        <v>740.1364404803579</v>
+        <v>4875.609206035544</v>
       </c>
       <c r="S19">
-        <v>0.01558494561695334</v>
+        <v>0.01626370575336643</v>
       </c>
       <c r="T19">
-        <v>0.01558494561695334</v>
+        <v>0.01320028442099557</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H20">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I20">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J20">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>353.755222143255</v>
+        <v>377.5036751233884</v>
       </c>
       <c r="R20">
-        <v>353.755222143255</v>
+        <v>2265.02205074033</v>
       </c>
       <c r="S20">
-        <v>0.007448972374928202</v>
+        <v>0.007555497293041003</v>
       </c>
       <c r="T20">
-        <v>0.007448972374928202</v>
+        <v>0.006132348600168149</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H21">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I21">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J21">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>1364.246905979681</v>
+        <v>1467.146163050714</v>
       </c>
       <c r="R21">
-        <v>1364.246905979681</v>
+        <v>13204.31546745643</v>
       </c>
       <c r="S21">
-        <v>0.02872674911667782</v>
+        <v>0.02936400250885502</v>
       </c>
       <c r="T21">
-        <v>0.02872674911667782</v>
+        <v>0.03574952634415574</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H22">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I22">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J22">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>1957.966557427716</v>
+        <v>2019.280661380922</v>
       </c>
       <c r="R22">
-        <v>1957.966557427716</v>
+        <v>18173.5259524283</v>
       </c>
       <c r="S22">
-        <v>0.04122861765530666</v>
+        <v>0.04041462527740137</v>
       </c>
       <c r="T22">
-        <v>0.04122861765530666</v>
+        <v>0.04920322802070143</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H23">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I23">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J23">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>1951.365917947548</v>
+        <v>1998.290923313456</v>
       </c>
       <c r="R23">
-        <v>1951.365917947548</v>
+        <v>17984.6183098211</v>
       </c>
       <c r="S23">
-        <v>0.04108962894767219</v>
+        <v>0.03999452894562779</v>
       </c>
       <c r="T23">
-        <v>0.04108962894767219</v>
+        <v>0.04869177714218806</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H24">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I24">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J24">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>266.046773173111</v>
+        <v>295.3159028915374</v>
       </c>
       <c r="R24">
-        <v>266.046773173111</v>
+        <v>2657.843126023837</v>
       </c>
       <c r="S24">
-        <v>0.005602108293408495</v>
+        <v>0.005910561014166753</v>
       </c>
       <c r="T24">
-        <v>0.005602108293408495</v>
+        <v>0.007195877218065708</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H25">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I25">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J25">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>637.5420360560996</v>
+        <v>647.4619007561527</v>
       </c>
       <c r="R25">
-        <v>637.5420360560996</v>
+        <v>3884.771404536916</v>
       </c>
       <c r="S25">
-        <v>0.01342463013171921</v>
+        <v>0.01295854043516625</v>
       </c>
       <c r="T25">
-        <v>0.01342463013171921</v>
+        <v>0.0105176779523178</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H26">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I26">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J26">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>645.7412161231609</v>
+        <v>688.4917612266167</v>
       </c>
       <c r="R26">
-        <v>645.7412161231609</v>
+        <v>4130.9505673597</v>
       </c>
       <c r="S26">
-        <v>0.01359727907650813</v>
+        <v>0.01377972714180458</v>
       </c>
       <c r="T26">
-        <v>0.01359727907650813</v>
+        <v>0.01118418645011959</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H27">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I27">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J27">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>2490.282548543787</v>
+        <v>2675.783342891957</v>
       </c>
       <c r="R27">
-        <v>2490.282548543787</v>
+        <v>24082.05008602761</v>
       </c>
       <c r="S27">
-        <v>0.05243751822936069</v>
+        <v>0.05355411122123891</v>
       </c>
       <c r="T27">
-        <v>0.05243751822936069</v>
+        <v>0.06520003903977939</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H28">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I28">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J28">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>3574.052414722662</v>
+        <v>3682.767057858677</v>
       </c>
       <c r="R28">
-        <v>3574.052414722662</v>
+        <v>33144.90352072809</v>
       </c>
       <c r="S28">
-        <v>0.07525830302240291</v>
+        <v>0.07370825337649246</v>
       </c>
       <c r="T28">
-        <v>0.07525830302240291</v>
+        <v>0.08973692006292404</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H29">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I29">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J29">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>3562.003673959795</v>
+        <v>3644.485942515808</v>
       </c>
       <c r="R29">
-        <v>3562.003673959795</v>
+        <v>32800.37348264227</v>
       </c>
       <c r="S29">
-        <v>0.07500459443669921</v>
+        <v>0.07294208106504915</v>
       </c>
       <c r="T29">
-        <v>0.07500459443669921</v>
+        <v>0.08880413519397283</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H30">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I30">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J30">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>485.6390976042671</v>
+        <v>538.5975806290268</v>
       </c>
       <c r="R30">
-        <v>485.6390976042671</v>
+        <v>4847.378225661241</v>
       </c>
       <c r="S30">
-        <v>0.01022603200123027</v>
+        <v>0.01077968992262382</v>
       </c>
       <c r="T30">
-        <v>0.01022603200123027</v>
+        <v>0.01312385151698779</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H31">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I31">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J31">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>1163.762805247825</v>
+        <v>1180.841972553073</v>
       </c>
       <c r="R31">
-        <v>1163.762805247825</v>
+        <v>7085.05183531844</v>
       </c>
       <c r="S31">
-        <v>0.02450518450226441</v>
+        <v>0.02363380521849967</v>
       </c>
       <c r="T31">
-        <v>0.02450518450226441</v>
+        <v>0.01918215661089599</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H32">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I32">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J32">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>48.5208639782535</v>
+        <v>51.05948607884251</v>
       </c>
       <c r="R32">
-        <v>48.5208639782535</v>
+        <v>204.23794431537</v>
       </c>
       <c r="S32">
-        <v>0.001021696791334704</v>
+        <v>0.001021923319625076</v>
       </c>
       <c r="T32">
-        <v>0.001021696791334704</v>
+        <v>0.0005529563261930317</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H33">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I33">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J33">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>187.1193254950382</v>
+        <v>198.4397345626635</v>
       </c>
       <c r="R33">
-        <v>187.1193254950382</v>
+        <v>1190.638407375981</v>
       </c>
       <c r="S33">
-        <v>0.003940144481777552</v>
+        <v>0.003971645777567396</v>
       </c>
       <c r="T33">
-        <v>0.003940144481777552</v>
+        <v>0.003223549090125653</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H34">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I34">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J34">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>268.5535733757956</v>
+        <v>273.1190174118315</v>
       </c>
       <c r="R34">
-        <v>268.5535733757956</v>
+        <v>1638.714104470989</v>
       </c>
       <c r="S34">
-        <v>0.005654893621484019</v>
+        <v>0.005466304390437081</v>
       </c>
       <c r="T34">
-        <v>0.005654893621484019</v>
+        <v>0.004436674751728739</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H35">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I35">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J35">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>267.6482334391966</v>
+        <v>270.2800377957946</v>
       </c>
       <c r="R35">
-        <v>267.6482334391966</v>
+        <v>1621.680226774767</v>
       </c>
       <c r="S35">
-        <v>0.005635830009823995</v>
+        <v>0.005409484009027669</v>
       </c>
       <c r="T35">
-        <v>0.005635830009823995</v>
+        <v>0.004390557021434803</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H36">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I36">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J36">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>36.49082327259126</v>
+        <v>39.94312963343401</v>
       </c>
       <c r="R36">
-        <v>36.49082327259126</v>
+        <v>239.6587778006041</v>
       </c>
       <c r="S36">
-        <v>0.0007683819700217595</v>
+        <v>0.0007994364762736559</v>
       </c>
       <c r="T36">
-        <v>0.0007683819700217595</v>
+        <v>0.0006488551270762141</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H37">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I37">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J37">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>87.44490109426533</v>
+        <v>87.57284786018101</v>
       </c>
       <c r="R37">
-        <v>87.44490109426533</v>
+        <v>350.2913914407241</v>
       </c>
       <c r="S37">
-        <v>0.001841314592143982</v>
+        <v>0.001752715161607962</v>
       </c>
       <c r="T37">
-        <v>0.001841314592143982</v>
+        <v>0.0009483832279912509</v>
       </c>
     </row>
   </sheetData>
